--- a/data/trans_orig/P15A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12598</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7091</v>
+        <v>7221</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21955</v>
+        <v>21378</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02658994254679284</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01496723870705048</v>
+        <v>0.01524152591500569</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04634104775137355</v>
+        <v>0.04512354950764377</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>7761</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3084</v>
+        <v>2960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16355</v>
+        <v>15125</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02530510540083529</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01005555129548161</v>
+        <v>0.009651638765278201</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0533303552491842</v>
+        <v>0.04931909565507736</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -786,19 +786,19 @@
         <v>20358</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12434</v>
+        <v>11847</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31039</v>
+        <v>31030</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02608506599416837</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01593151239255049</v>
+        <v>0.01518010103787256</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03977083427194111</v>
+        <v>0.03975844312940103</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>461178</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>451821</v>
+        <v>452398</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>466685</v>
+        <v>466555</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9734100574532072</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9536589522486266</v>
+        <v>0.9548764504923559</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9850327612929496</v>
+        <v>0.9847584740849943</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>291</v>
@@ -836,19 +836,19 @@
         <v>298919</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>290325</v>
+        <v>291555</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>303596</v>
+        <v>303720</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9746948945991647</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9466696447508157</v>
+        <v>0.9506809043449228</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9899444487045183</v>
+        <v>0.9903483612347218</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>734</v>
@@ -857,19 +857,19 @@
         <v>760099</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>749418</v>
+        <v>749427</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>768023</v>
+        <v>768610</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9739149340058316</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9602291657280588</v>
+        <v>0.9602415568705988</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9840684876074495</v>
+        <v>0.9848198989621274</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>13281</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7485</v>
+        <v>7376</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22162</v>
+        <v>22254</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03619350199404891</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02039793735589301</v>
+        <v>0.02010074921530777</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06039676543773476</v>
+        <v>0.06064886008647211</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>5588</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1900</v>
+        <v>1884</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12430</v>
+        <v>12041</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01502633365666955</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005110683940175757</v>
+        <v>0.005065644737224702</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03342623683121031</v>
+        <v>0.03237908924936965</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -1003,19 +1003,19 @@
         <v>18868</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11588</v>
+        <v>11645</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29463</v>
+        <v>31501</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02553928325532415</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01568553952453795</v>
+        <v>0.01576171878367452</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03988018273158922</v>
+        <v>0.04263773166179802</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>353653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>344772</v>
+        <v>344680</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>359449</v>
+        <v>359558</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9638064980059511</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9396032345622654</v>
+        <v>0.9393511399135279</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.979602062644107</v>
+        <v>0.9798992507846922</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>358</v>
@@ -1053,19 +1053,19 @@
         <v>366277</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>359435</v>
+        <v>359824</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369965</v>
+        <v>369981</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9849736663433305</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9665737631687898</v>
+        <v>0.9676209107506307</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9948893160598242</v>
+        <v>0.9949343552627754</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>695</v>
@@ -1074,19 +1074,19 @@
         <v>719931</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>709336</v>
+        <v>707298</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>727211</v>
+        <v>727154</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9744607167446758</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9601198172684107</v>
+        <v>0.9573622683382019</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.984314460475462</v>
+        <v>0.9842382812163255</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>28285</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19119</v>
+        <v>18939</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40774</v>
+        <v>40633</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05214832071576017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03525003186005576</v>
+        <v>0.03491745533434702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07517414523431366</v>
+        <v>0.07491401336931884</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1199,19 +1199,19 @@
         <v>4957</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1878</v>
+        <v>1921</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11943</v>
+        <v>11297</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02954620316374397</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01119359311399319</v>
+        <v>0.01144821600232491</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07118084451674447</v>
+        <v>0.06733203955587584</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -1220,19 +1220,19 @@
         <v>33242</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22296</v>
+        <v>23314</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46856</v>
+        <v>46552</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04680844287145212</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03139557423402019</v>
+        <v>0.03282919760742143</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06597792110722051</v>
+        <v>0.06555090797537121</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>514104</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>501615</v>
+        <v>501756</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>523270</v>
+        <v>523450</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9478516792842399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9248258547656864</v>
+        <v>0.9250859866306822</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9647499681399442</v>
+        <v>0.9650825446656531</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>159</v>
@@ -1270,19 +1270,19 @@
         <v>162825</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155839</v>
+        <v>156485</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165904</v>
+        <v>165861</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.970453796836256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9288191554832548</v>
+        <v>0.9326679604441245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9888064068860069</v>
+        <v>0.9885517839976751</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>664</v>
@@ -1291,19 +1291,19 @@
         <v>676929</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>663315</v>
+        <v>663619</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>687875</v>
+        <v>686857</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9531915571285479</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9340220788927794</v>
+        <v>0.9344490920246288</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9686044257659797</v>
+        <v>0.9671708023925785</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>39023</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28591</v>
+        <v>27833</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54039</v>
+        <v>52700</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03151229805647465</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02308798188204221</v>
+        <v>0.02247616429409104</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04363841710330473</v>
+        <v>0.0425572958684579</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1416,19 +1416,19 @@
         <v>25010</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16401</v>
+        <v>15920</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36146</v>
+        <v>35897</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03501352680777173</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0229612889433011</v>
+        <v>0.02228777557009517</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05060484198573007</v>
+        <v>0.05025543021584811</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -1437,19 +1437,19 @@
         <v>64032</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48661</v>
+        <v>49081</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81041</v>
+        <v>82681</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03279307807495914</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02492099927802638</v>
+        <v>0.02513589856136747</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04150380630992182</v>
+        <v>0.04234381812328063</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1199311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1184295</v>
+        <v>1185634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1209743</v>
+        <v>1210501</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9684877019435254</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9563615828966954</v>
+        <v>0.957442704131542</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9769120181179584</v>
+        <v>0.977523835705909</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>670</v>
@@ -1487,19 +1487,19 @@
         <v>689275</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>678139</v>
+        <v>678388</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>697884</v>
+        <v>698365</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9649864731922283</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9493951580142699</v>
+        <v>0.9497445697841519</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9770387110566986</v>
+        <v>0.9777122244299048</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1857</v>
@@ -1508,19 +1508,19 @@
         <v>1888588</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1871579</v>
+        <v>1869939</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1903959</v>
+        <v>1903539</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9672069219250409</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9584961936900782</v>
+        <v>0.9576561818767196</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.975079000721974</v>
+        <v>0.9748641014386327</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>12641</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6534</v>
+        <v>6238</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20582</v>
+        <v>21165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0360611308010305</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01863862252706584</v>
+        <v>0.0177942100142633</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05871338524457018</v>
+        <v>0.06037673995165431</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1633,19 +1633,19 @@
         <v>22448</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14616</v>
+        <v>14139</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33729</v>
+        <v>32318</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03946949448191957</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02569891817044862</v>
+        <v>0.02485894713646641</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05930342313570233</v>
+        <v>0.05682319542462515</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1654,19 +1654,19 @@
         <v>35090</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25269</v>
+        <v>25085</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48691</v>
+        <v>48021</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03816979840036769</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02748678045608747</v>
+        <v>0.02728658455188261</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05296529794469549</v>
+        <v>0.05223613239795692</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>337914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>329973</v>
+        <v>329390</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>344021</v>
+        <v>344317</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9639388691989695</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9412866147554299</v>
+        <v>0.9396232600483457</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9813613774729342</v>
+        <v>0.9822057899857366</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>517</v>
@@ -1704,19 +1704,19 @@
         <v>546304</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>535023</v>
+        <v>536434</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>554136</v>
+        <v>554613</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9605305055180804</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9406965768642978</v>
+        <v>0.9431768045753748</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9743010818295513</v>
+        <v>0.9751410528635334</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>844</v>
@@ -1725,19 +1725,19 @@
         <v>884217</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>870616</v>
+        <v>871286</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>894038</v>
+        <v>894222</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9618302015996323</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9470347020553045</v>
+        <v>0.9477638676020432</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9725132195439126</v>
+        <v>0.9727134154481174</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>16192</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9084</v>
+        <v>9907</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25834</v>
+        <v>26063</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05430022053169348</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03046136107060947</v>
+        <v>0.03322224274408883</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08663135604509972</v>
+        <v>0.08739945754271577</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -1850,19 +1850,19 @@
         <v>28042</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19202</v>
+        <v>18403</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40358</v>
+        <v>39754</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02245598044526664</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01537654709931085</v>
+        <v>0.01473737955970509</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03231882312220357</v>
+        <v>0.03183499898779955</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -1871,19 +1871,19 @@
         <v>44234</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31942</v>
+        <v>32252</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59295</v>
+        <v>60063</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02859445044992692</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02064812365263697</v>
+        <v>0.0208489408140034</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0383302137591725</v>
+        <v>0.0388265596023793</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>282009</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>272367</v>
+        <v>272138</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289117</v>
+        <v>288294</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9456997794683065</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9133686439549003</v>
+        <v>0.9126005424572843</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9695386389293905</v>
+        <v>0.9667777572559112</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1211</v>
@@ -1921,19 +1921,19 @@
         <v>1220718</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1208402</v>
+        <v>1209006</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1229558</v>
+        <v>1230357</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9775440195547334</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9676811768777964</v>
+        <v>0.9681650010122005</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9846234529006892</v>
+        <v>0.985262620440295</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1501</v>
@@ -1942,19 +1942,19 @@
         <v>1502726</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1487665</v>
+        <v>1486897</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1515018</v>
+        <v>1514708</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9714055495500731</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9616697862408276</v>
+        <v>0.961173440397621</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9793518763473631</v>
+        <v>0.9791510591859968</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>122020</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>101315</v>
+        <v>100183</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>146679</v>
+        <v>144647</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03731267783960066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03098133021371664</v>
+        <v>0.03063536137715696</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04485346296056276</v>
+        <v>0.04423202900670711</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>90</v>
@@ -2067,19 +2067,19 @@
         <v>93806</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>76118</v>
+        <v>76787</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>114339</v>
+        <v>113455</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02776860196176161</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0225327150432754</v>
+        <v>0.02273064235359138</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03384687715835291</v>
+        <v>0.03358518105825119</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>208</v>
@@ -2088,19 +2088,19 @@
         <v>215825</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>189386</v>
+        <v>187748</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>247181</v>
+        <v>244907</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03246316683822346</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02848635709152793</v>
+        <v>0.02823992074256087</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03717956577177472</v>
+        <v>0.03683744949481939</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3148170</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3123511</v>
+        <v>3125543</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3168875</v>
+        <v>3170007</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9626873221603993</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9551465370394371</v>
+        <v>0.9557679709932931</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9690186697862834</v>
+        <v>0.9693646386228432</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3206</v>
@@ -2138,19 +2138,19 @@
         <v>3284318</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3263785</v>
+        <v>3264669</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3302006</v>
+        <v>3301337</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9722313980382384</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9661531228416471</v>
+        <v>0.9664148189417489</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9774672849567246</v>
+        <v>0.9772693576464087</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6295</v>
@@ -2159,19 +2159,19 @@
         <v>6432489</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6401133</v>
+        <v>6403407</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6458928</v>
+        <v>6460566</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9675368331617765</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9628204342282253</v>
+        <v>0.9631625505051805</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9715136429084722</v>
+        <v>0.971760079257439</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>14112</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7032</v>
+        <v>7627</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25505</v>
+        <v>24863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03227838137685164</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01608305085391313</v>
+        <v>0.01744439981381952</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05833563254031322</v>
+        <v>0.05686635673530915</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2526,19 +2526,19 @@
         <v>8357</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2986</v>
+        <v>3604</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18563</v>
+        <v>18913</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0265767624820833</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009494932630623079</v>
+        <v>0.01146197366950233</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05903193899939408</v>
+        <v>0.06014672399770283</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -2547,19 +2547,19 @@
         <v>22470</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13382</v>
+        <v>14068</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35400</v>
+        <v>36060</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02989314561734094</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01780369356238662</v>
+        <v>0.01871636120990243</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.047095987879087</v>
+        <v>0.04797324860144921</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>423099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411706</v>
+        <v>412348</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>430179</v>
+        <v>429584</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9677216186231483</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.941664367459687</v>
+        <v>0.9431336432646908</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9839169491460868</v>
+        <v>0.9825556001861805</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>277</v>
@@ -2597,19 +2597,19 @@
         <v>306097</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295891</v>
+        <v>295541</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311468</v>
+        <v>310850</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9734232375179167</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9409680610006057</v>
+        <v>0.9398532760022972</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9905050673693769</v>
+        <v>0.9885380263304976</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>669</v>
@@ -2618,19 +2618,19 @@
         <v>729195</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>716265</v>
+        <v>715605</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>738283</v>
+        <v>737597</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9701068543826591</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9529040121209135</v>
+        <v>0.9520267513985511</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9821963064376135</v>
+        <v>0.9812836387900977</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>11872</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6733</v>
+        <v>6865</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21051</v>
+        <v>20536</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02834668791663281</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01607700288500076</v>
+        <v>0.01639310828436823</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05026608692686397</v>
+        <v>0.04903592162570705</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2743,19 +2743,19 @@
         <v>3801</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11543</v>
+        <v>12104</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01124441971504542</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002886127540844117</v>
+        <v>0.002907895486275664</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03414975449160457</v>
+        <v>0.03580890963991308</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2764,19 +2764,19 @@
         <v>15672</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8736</v>
+        <v>8842</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25180</v>
+        <v>24936</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02070834895577819</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01154341449276543</v>
+        <v>0.01168312667475158</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03327161772269039</v>
+        <v>0.03294894608074914</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>406925</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>397746</v>
+        <v>398261</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>412064</v>
+        <v>411932</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9716533120833671</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9497339130731361</v>
+        <v>0.950964078374293</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9839229971149994</v>
+        <v>0.9836068917156318</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>302</v>
@@ -2814,19 +2814,19 @@
         <v>334210</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>326468</v>
+        <v>325907</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>337035</v>
+        <v>337028</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9887555802849546</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9658502455083953</v>
+        <v>0.9641910903600827</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9971138724591558</v>
+        <v>0.9970921045137243</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>665</v>
@@ -2835,19 +2835,19 @@
         <v>741136</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>731628</v>
+        <v>731872</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>748072</v>
+        <v>747966</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9792916510442218</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9667283822773109</v>
+        <v>0.9670510539192506</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9884565855072347</v>
+        <v>0.9883168733252484</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>16737</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9479</v>
+        <v>9605</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26923</v>
+        <v>27403</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02659199838634539</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01505966929798268</v>
+        <v>0.01525953785095124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04277493934737363</v>
+        <v>0.04353656659478124</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -2960,19 +2960,19 @@
         <v>5735</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1965</v>
+        <v>1985</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12347</v>
+        <v>13292</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02204706869446765</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007552752236548161</v>
+        <v>0.007630982250849206</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04746479308565441</v>
+        <v>0.05109799651467928</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -2981,19 +2981,19 @@
         <v>22472</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14257</v>
+        <v>14397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34363</v>
+        <v>34032</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02526292457073475</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01602765121241233</v>
+        <v>0.01618419831986299</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03863016953107217</v>
+        <v>0.03825765304393682</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>612678</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>602492</v>
+        <v>602012</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>619936</v>
+        <v>619810</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9734080016136546</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9572250606526258</v>
+        <v>0.9564634334052189</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9849403307020174</v>
+        <v>0.9847404621490488</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>239</v>
@@ -3031,19 +3031,19 @@
         <v>254394</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>247782</v>
+        <v>246837</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>258164</v>
+        <v>258144</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9779529313055324</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9525352069143457</v>
+        <v>0.9489020034853206</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9924472477634518</v>
+        <v>0.9923690177491508</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>814</v>
@@ -3052,19 +3052,19 @@
         <v>867072</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>855181</v>
+        <v>855512</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>875287</v>
+        <v>875147</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9747370754292652</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9613698304689278</v>
+        <v>0.9617423469560632</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9839723487875878</v>
+        <v>0.9838158016801369</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>35092</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25063</v>
+        <v>23617</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49632</v>
+        <v>47790</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03027739486819592</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02162426329446439</v>
+        <v>0.02037678978814026</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04282258550458976</v>
+        <v>0.0412332075480705</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3177,19 +3177,19 @@
         <v>16816</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10042</v>
+        <v>10168</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26874</v>
+        <v>27436</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02193421017753025</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01309817436409169</v>
+        <v>0.01326308432403283</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03505326709368172</v>
+        <v>0.03578691082390831</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -3198,19 +3198,19 @@
         <v>51908</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39670</v>
+        <v>39472</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67495</v>
+        <v>69125</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02695575843822246</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02060079973786706</v>
+        <v>0.020498046989399</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03505040299257112</v>
+        <v>0.03589665682814122</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1123917</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1109377</v>
+        <v>1111219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1133946</v>
+        <v>1135392</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9697226051318041</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9571774144954103</v>
+        <v>0.9587667924519288</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9783757367055357</v>
+        <v>0.9796232102118594</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>695</v>
@@ -3248,19 +3248,19 @@
         <v>749841</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>739783</v>
+        <v>739221</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>756615</v>
+        <v>756489</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9780657898224697</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9649467329063185</v>
+        <v>0.9642130891760917</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9869018256359083</v>
+        <v>0.9867369156759672</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1744</v>
@@ -3269,19 +3269,19 @@
         <v>1873759</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1858172</v>
+        <v>1856542</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1885997</v>
+        <v>1886195</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9730442415617775</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9649495970074286</v>
+        <v>0.9641033431718591</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9793992002621323</v>
+        <v>0.9795019530106011</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>13748</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7014</v>
+        <v>7895</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23406</v>
+        <v>23485</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02692464635635363</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01373702856301414</v>
+        <v>0.01546235634848374</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04584137381785459</v>
+        <v>0.04599539024335099</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -3394,19 +3394,19 @@
         <v>25737</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16139</v>
+        <v>17315</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36458</v>
+        <v>37431</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03379726967777373</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02119318228332767</v>
+        <v>0.02273714476066576</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04787462951959687</v>
+        <v>0.04915296815262104</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -3415,19 +3415,19 @@
         <v>39485</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28187</v>
+        <v>28355</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54625</v>
+        <v>54432</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03103877089252044</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02215714661291022</v>
+        <v>0.02228943532227828</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04294051623704428</v>
+        <v>0.04278853563228607</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>496848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>487190</v>
+        <v>487111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>503582</v>
+        <v>502701</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9730753536436464</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9541586261821455</v>
+        <v>0.9540046097566487</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9862629714369859</v>
+        <v>0.9845376436515162</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>679</v>
@@ -3465,19 +3465,19 @@
         <v>735785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>725064</v>
+        <v>724091</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>745383</v>
+        <v>744207</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9662027303222263</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9521253704804034</v>
+        <v>0.9508470318473787</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9788068177166724</v>
+        <v>0.9772628552393341</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1153</v>
@@ -3486,19 +3486,19 @@
         <v>1232633</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1217493</v>
+        <v>1217686</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1243931</v>
+        <v>1243763</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9689612291074796</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.957059483762956</v>
+        <v>0.957211464367714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9778428533870898</v>
+        <v>0.9777105646777218</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>6754</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2868</v>
+        <v>2908</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13376</v>
+        <v>13486</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02530761200194086</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01074577910588579</v>
+        <v>0.01089488705715953</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05011828471294698</v>
+        <v>0.05052984613310186</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -3611,19 +3611,19 @@
         <v>37885</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26169</v>
+        <v>25532</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51019</v>
+        <v>50530</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03415043109694368</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0235895266073833</v>
+        <v>0.02301549237466542</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04598985768460272</v>
+        <v>0.04554957118924018</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -3632,19 +3632,19 @@
         <v>44639</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32618</v>
+        <v>32385</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59871</v>
+        <v>58263</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03243561370686407</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02370083436523314</v>
+        <v>0.02353173995321836</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04350359652320258</v>
+        <v>0.04233504835514887</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>260128</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253506</v>
+        <v>253396</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264014</v>
+        <v>263974</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9746923879980591</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9498817152870525</v>
+        <v>0.949470153866898</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9892542208941143</v>
+        <v>0.9891051129428404</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1008</v>
@@ -3682,19 +3682,19 @@
         <v>1071466</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1058332</v>
+        <v>1058821</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1083182</v>
+        <v>1083819</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9658495689030563</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9540101423153973</v>
+        <v>0.9544504288107599</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9764104733926167</v>
+        <v>0.9769845076253346</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1266</v>
@@ -3703,19 +3703,19 @@
         <v>1331594</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1316362</v>
+        <v>1317970</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1343615</v>
+        <v>1343848</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9675643862931359</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9564964034767974</v>
+        <v>0.9576649516448511</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9762991656347669</v>
+        <v>0.9764682600467817</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>98315</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>78549</v>
+        <v>80866</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>120277</v>
+        <v>119182</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02873100373270753</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02295474160416909</v>
+        <v>0.02363187127572455</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03514895378540181</v>
+        <v>0.03482916193828571</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>90</v>
@@ -3828,19 +3828,19 @@
         <v>98331</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79135</v>
+        <v>79370</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>120622</v>
+        <v>119031</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02769795589948474</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02229085722977715</v>
+        <v>0.02235700090521457</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03397682873160057</v>
+        <v>0.03352873071448319</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>184</v>
@@ -3849,19 +3849,19 @@
         <v>196646</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>170770</v>
+        <v>168370</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>226740</v>
+        <v>226155</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02820498097279945</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02449360629957546</v>
+        <v>0.02414939349457592</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0325212986745647</v>
+        <v>0.03243750781881451</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3323595</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3301633</v>
+        <v>3302728</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3343361</v>
+        <v>3341044</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9712689962672925</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9648510462145982</v>
+        <v>0.9651708380617143</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9770452583958309</v>
+        <v>0.9763681287242755</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3200</v>
@@ -3899,19 +3899,19 @@
         <v>3451794</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3429503</v>
+        <v>3431094</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3470990</v>
+        <v>3470755</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9723020441005152</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9660231712683993</v>
+        <v>0.9664712692855169</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9777091427702229</v>
+        <v>0.9776429990947855</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6311</v>
@@ -3920,19 +3920,19 @@
         <v>6775389</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6745295</v>
+        <v>6745880</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6801265</v>
+        <v>6803665</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9717950190272006</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9674787013254356</v>
+        <v>0.9675624921811855</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9755063937004248</v>
+        <v>0.9758506065054239</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>9250</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4055</v>
+        <v>3958</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19695</v>
+        <v>18565</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0215563801386216</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009450564730770859</v>
+        <v>0.009224524616169823</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04589977447223849</v>
+        <v>0.04326563553609088</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4287,19 +4287,19 @@
         <v>6742</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2883</v>
+        <v>2941</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14050</v>
+        <v>14132</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0194259156851607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008308270881043507</v>
+        <v>0.008474731199256904</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04048314577947128</v>
+        <v>0.04072046265346133</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -4308,19 +4308,19 @@
         <v>15992</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9790</v>
+        <v>9492</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26234</v>
+        <v>25910</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02060374072771065</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01261358166206791</v>
+        <v>0.01222930269242074</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03380057789588214</v>
+        <v>0.03338298888660783</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>419842</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>409397</v>
+        <v>410527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425037</v>
+        <v>425134</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9784436198613784</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9541002255277614</v>
+        <v>0.9567343644639082</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9905494352692288</v>
+        <v>0.9907754753838302</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>325</v>
@@ -4358,19 +4358,19 @@
         <v>340313</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>333005</v>
+        <v>332923</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>344172</v>
+        <v>344114</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9805740843148393</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9595168542205283</v>
+        <v>0.9592795373465386</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9916917291189564</v>
+        <v>0.9915252688007431</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>713</v>
@@ -4379,19 +4379,19 @@
         <v>760155</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>749913</v>
+        <v>750237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>766357</v>
+        <v>766655</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9793962592722893</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9661994221041174</v>
+        <v>0.9666170111133918</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9873864183379321</v>
+        <v>0.987770697307579</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>5910</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12085</v>
+        <v>11907</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01566716830208371</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005311669928051982</v>
+        <v>0.005278955931560072</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03203677863943543</v>
+        <v>0.03156324657577212</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -4504,19 +4504,19 @@
         <v>12653</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6087</v>
+        <v>6226</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21628</v>
+        <v>21939</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03398774100406633</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01635035799513887</v>
+        <v>0.01672325691318189</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05809695725590363</v>
+        <v>0.05893189630070153</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -4525,19 +4525,19 @@
         <v>18563</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10988</v>
+        <v>11976</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29294</v>
+        <v>30322</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02476691090678833</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01466081217421245</v>
+        <v>0.01597903474857077</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03908473588086225</v>
+        <v>0.04045592967252346</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>371317</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>365142</v>
+        <v>365320</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375223</v>
+        <v>375236</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9843328316979163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9679632213605647</v>
+        <v>0.968436753424228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.994688330071948</v>
+        <v>0.9947210440684399</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>341</v>
@@ -4575,19 +4575,19 @@
         <v>359620</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>350645</v>
+        <v>350334</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>366186</v>
+        <v>366047</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9660122589959337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9419030427440966</v>
+        <v>0.9410681036992981</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9836496420048612</v>
+        <v>0.9832767430868181</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>689</v>
@@ -4596,19 +4596,19 @@
         <v>730937</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>720206</v>
+        <v>719178</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>738512</v>
+        <v>737524</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9752330890932117</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9609152641191376</v>
+        <v>0.9595440703274751</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9853391878257876</v>
+        <v>0.984020965251429</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>9917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4893</v>
+        <v>5070</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18116</v>
+        <v>18670</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0190018468715784</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009375111476433303</v>
+        <v>0.009714190013464588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03471158707395129</v>
+        <v>0.03577293926481509</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -4721,19 +4721,19 @@
         <v>6846</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3208</v>
+        <v>2424</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14555</v>
+        <v>13531</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0412091061285701</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01931224245132551</v>
+        <v>0.01459007499675031</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08761869788788354</v>
+        <v>0.08144997501896542</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -4742,19 +4742,19 @@
         <v>16763</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10330</v>
+        <v>9728</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26267</v>
+        <v>27857</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02436367318076244</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01501363420164691</v>
+        <v>0.01413852694283475</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03817616980942102</v>
+        <v>0.04048776824383912</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>511997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503798</v>
+        <v>503244</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>517021</v>
+        <v>516844</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9809981531284216</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9652884129260487</v>
+        <v>0.9642270607351845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9906248885235667</v>
+        <v>0.9902858099865354</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>147</v>
@@ -4792,19 +4792,19 @@
         <v>159277</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151568</v>
+        <v>152592</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162915</v>
+        <v>163699</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9587908938714299</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9123813021121162</v>
+        <v>0.9185500249810346</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9806877575486744</v>
+        <v>0.9854099250032495</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>639</v>
@@ -4813,19 +4813,19 @@
         <v>671273</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>661769</v>
+        <v>660179</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>677706</v>
+        <v>678308</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9756363268192375</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9618238301905792</v>
+        <v>0.9595122317561612</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9849863657983531</v>
+        <v>0.9858614730571654</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>25883</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17039</v>
+        <v>17177</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38372</v>
+        <v>36764</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02251400334261773</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.014821243569175</v>
+        <v>0.01494145160665081</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03337761157618065</v>
+        <v>0.0319790270506317</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4938,19 +4938,19 @@
         <v>9226</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4088</v>
+        <v>4284</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17861</v>
+        <v>18331</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01117107520220298</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004949434517809901</v>
+        <v>0.005187078798544752</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02162692469225476</v>
+        <v>0.0221953257163996</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -4959,19 +4959,19 @@
         <v>35109</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25095</v>
+        <v>24810</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50118</v>
+        <v>48515</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01777202255819382</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01270293989970089</v>
+        <v>0.01255891104447815</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02536960806006852</v>
+        <v>0.02455832382656653</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1123755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1111266</v>
+        <v>1112874</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1132599</v>
+        <v>1132461</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9774859966573822</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9666223884238188</v>
+        <v>0.9680209729493676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.985178756430825</v>
+        <v>0.9850585483933487</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>790</v>
@@ -5009,19 +5009,19 @@
         <v>816650</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>808015</v>
+        <v>807545</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821788</v>
+        <v>821592</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.988828924797797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9783730753077452</v>
+        <v>0.9778046742836004</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9950505654821902</v>
+        <v>0.9948129212014553</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1867</v>
@@ -5030,19 +5030,19 @@
         <v>1940405</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1925396</v>
+        <v>1926999</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1950419</v>
+        <v>1950704</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9822279774418062</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9746303919399315</v>
+        <v>0.9754416761734342</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9872970601002992</v>
+        <v>0.9874410889555219</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>23910</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16021</v>
+        <v>14818</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35171</v>
+        <v>35019</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03852030160869109</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0258110613767899</v>
+        <v>0.02387244875743118</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05666291805558862</v>
+        <v>0.05641843079188451</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -5155,19 +5155,19 @@
         <v>22085</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13323</v>
+        <v>14390</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33615</v>
+        <v>33381</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02991601433344938</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01804728956737551</v>
+        <v>0.01949268315530174</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04553336793836329</v>
+        <v>0.04521625963214485</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -5176,19 +5176,19 @@
         <v>45995</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33982</v>
+        <v>34727</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61001</v>
+        <v>61880</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03384605713916664</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02500592500087249</v>
+        <v>0.02555453811907153</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04488836507367591</v>
+        <v>0.04553516903576101</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>596796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>585535</v>
+        <v>585687</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>604685</v>
+        <v>605888</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9614796983913089</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.943337081944411</v>
+        <v>0.9435815692081156</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9741889386232098</v>
+        <v>0.976127551242569</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>679</v>
@@ -5226,19 +5226,19 @@
         <v>716159</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>704629</v>
+        <v>704863</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>724921</v>
+        <v>723854</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9700839856665506</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9544666320616365</v>
+        <v>0.954783740367855</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9819527104326244</v>
+        <v>0.9805073168446983</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1252</v>
@@ -5247,19 +5247,19 @@
         <v>1312955</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1297949</v>
+        <v>1297070</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1324968</v>
+        <v>1324223</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9661539428608333</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.955111634926324</v>
+        <v>0.9544648309642388</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9749940749991274</v>
+        <v>0.9744454618809283</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>14241</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7736</v>
+        <v>7971</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23607</v>
+        <v>24009</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04959599312185781</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02694189121000505</v>
+        <v>0.0277579252773484</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08221399033930415</v>
+        <v>0.08361265216511705</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -5372,19 +5372,19 @@
         <v>29958</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19826</v>
+        <v>20132</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43910</v>
+        <v>44599</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02768705062969648</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01832331157565068</v>
+        <v>0.01860586572633995</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04058148865664857</v>
+        <v>0.04121827789325113</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -5393,19 +5393,19 @@
         <v>44199</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31985</v>
+        <v>30601</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59237</v>
+        <v>58933</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03228183909564072</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02336087975513671</v>
+        <v>0.02235022271363335</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0432652482003644</v>
+        <v>0.04304279141931612</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>272904</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263538</v>
+        <v>263136</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>279409</v>
+        <v>279174</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9504040068781422</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9177860096606956</v>
+        <v>0.9163873478348831</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9730581087899948</v>
+        <v>0.9722420747226517</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>967</v>
@@ -5443,19 +5443,19 @@
         <v>1052067</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1038115</v>
+        <v>1037426</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1062199</v>
+        <v>1061893</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9723129493703035</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9594185113433517</v>
+        <v>0.9587817221067493</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9816766884243503</v>
+        <v>0.9813941342736602</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1226</v>
@@ -5464,19 +5464,19 @@
         <v>1324971</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1309933</v>
+        <v>1310237</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1337185</v>
+        <v>1338569</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9677181609043592</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9567347517996353</v>
+        <v>0.9569572085806839</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9766391202448631</v>
+        <v>0.9776497772863674</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>89111</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71210</v>
+        <v>70877</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108828</v>
+        <v>108462</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02631966204911538</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0210324871328982</v>
+        <v>0.02093415792874368</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03214309609895396</v>
+        <v>0.03203499775458921</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>77</v>
@@ -5589,19 +5589,19 @@
         <v>87510</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67334</v>
+        <v>69479</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106781</v>
+        <v>106564</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02477907516989985</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0190662184994771</v>
+        <v>0.01967353160707161</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03023596054357179</v>
+        <v>0.03017447363942009</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>164</v>
@@ -5610,19 +5610,19 @@
         <v>176621</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>150955</v>
+        <v>151266</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>205218</v>
+        <v>205014</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02553312451712501</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02182275118064326</v>
+        <v>0.02186778372104672</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02966730740464305</v>
+        <v>0.02963775690319869</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3296611</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3276894</v>
+        <v>3277260</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3314512</v>
+        <v>3314845</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9736803379508846</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9678569039010464</v>
+        <v>0.9679650022454108</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9789675128671025</v>
+        <v>0.9790658420712564</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3249</v>
@@ -5660,19 +5660,19 @@
         <v>3444086</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3424815</v>
+        <v>3425032</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3464262</v>
+        <v>3462117</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9752209248301001</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9697640394564282</v>
+        <v>0.9698255263605799</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9809337815005229</v>
+        <v>0.9803264683929284</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6386</v>
@@ -5681,19 +5681,19 @@
         <v>6740697</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6712100</v>
+        <v>6712304</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6766363</v>
+        <v>6766052</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.974466875482875</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9703326925953569</v>
+        <v>0.9703622430968013</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9781772488193567</v>
+        <v>0.9781322162789531</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>6064</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2006</v>
+        <v>2262</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12631</v>
+        <v>13196</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01101251852311852</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003643442814765122</v>
+        <v>0.004108700241652255</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02294047393875975</v>
+        <v>0.02396646925585385</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -6048,19 +6048,19 @@
         <v>14338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9435</v>
+        <v>9424</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21338</v>
+        <v>21455</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02935585362927467</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01931699493436521</v>
+        <v>0.01929520338182688</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04368935330281982</v>
+        <v>0.043927509132169</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -6069,19 +6069,19 @@
         <v>20401</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13107</v>
+        <v>13755</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28469</v>
+        <v>29048</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0196350721162063</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01261494930315449</v>
+        <v>0.01323788263317294</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02739961684581276</v>
+        <v>0.0279565906611183</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>544554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>537987</v>
+        <v>537422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>548612</v>
+        <v>548356</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9889874814768815</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.97705952606124</v>
+        <v>0.9760335307441461</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9963565571852347</v>
+        <v>0.9958912997583476</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>663</v>
@@ -6119,19 +6119,19 @@
         <v>474073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>467073</v>
+        <v>466956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>478976</v>
+        <v>478987</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9706441463707254</v>
+        <v>0.9706441463707253</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9563106466971808</v>
+        <v>0.9560724908678309</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9806830050656348</v>
+        <v>0.9807047966181729</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1211</v>
@@ -6140,19 +6140,19 @@
         <v>1018628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1010560</v>
+        <v>1009981</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1025922</v>
+        <v>1025274</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9803649278837938</v>
+        <v>0.9803649278837937</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9726003831541873</v>
+        <v>0.9720434093388817</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9873850506968455</v>
+        <v>0.9867621173668271</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>12773</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6414</v>
+        <v>6577</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23843</v>
+        <v>24512</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02643419813001034</v>
+        <v>0.02643419813001033</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01327446846629877</v>
+        <v>0.01361075297092537</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04934331803979951</v>
+        <v>0.05072665292981735</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -6265,19 +6265,19 @@
         <v>5776</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2943</v>
+        <v>2687</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10851</v>
+        <v>10119</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01365022662410866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006956054581880702</v>
+        <v>0.006348939133957369</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02564372465775509</v>
+        <v>0.02391395134926149</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -6286,19 +6286,19 @@
         <v>18549</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11239</v>
+        <v>11210</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30129</v>
+        <v>29996</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02046584557080322</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01240044283939858</v>
+        <v>0.01236835289991711</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03324236174988428</v>
+        <v>0.03309533236967331</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>470439</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>459369</v>
+        <v>458700</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476798</v>
+        <v>476635</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9735658018699896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9506566819602005</v>
+        <v>0.9492733470701828</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9867255315337012</v>
+        <v>0.9863892470290746</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>581</v>
@@ -6336,19 +6336,19 @@
         <v>417367</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>412292</v>
+        <v>413024</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>420200</v>
+        <v>420456</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9863497733758912</v>
+        <v>0.9863497733758914</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.974356275342245</v>
+        <v>0.9760860486507384</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9930439454181192</v>
+        <v>0.9936510608660426</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1051</v>
@@ -6357,19 +6357,19 @@
         <v>887806</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>876226</v>
+        <v>876359</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>895116</v>
+        <v>895145</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9795341544291968</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9667576382501158</v>
+        <v>0.9669046676303256</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9875995571606014</v>
+        <v>0.9876316471000824</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>14779</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8249</v>
+        <v>7591</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26284</v>
+        <v>23983</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03133667811544773</v>
+        <v>0.03133667811544772</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01749200354646286</v>
+        <v>0.01609620827417205</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05573160912435185</v>
+        <v>0.05085361072025031</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -6482,19 +6482,19 @@
         <v>5536</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2588</v>
+        <v>2597</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10017</v>
+        <v>9945</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02952795347698564</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01380369389017517</v>
+        <v>0.01385104533879643</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05342426659708906</v>
+        <v>0.05304307945597413</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -6503,19 +6503,19 @@
         <v>20315</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12573</v>
+        <v>12287</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31484</v>
+        <v>30065</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03082214871448284</v>
+        <v>0.03082214871448285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01907499866709226</v>
+        <v>0.01864206028262004</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0477680568856384</v>
+        <v>0.04561504061468161</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>456833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>445328</v>
+        <v>447629</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>463363</v>
+        <v>464021</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9686633218845524</v>
+        <v>0.9686633218845522</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9442683908756483</v>
+        <v>0.9491463892797497</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9825079964535371</v>
+        <v>0.9839037917258276</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>279</v>
@@ -6553,19 +6553,19 @@
         <v>181961</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>177480</v>
+        <v>177552</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>184909</v>
+        <v>184900</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9704720465230143</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9465757334029103</v>
+        <v>0.9469569205440257</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9861963061098248</v>
+        <v>0.9861489546612034</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>752</v>
@@ -6574,19 +6574,19 @@
         <v>638794</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>627625</v>
+        <v>629044</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646536</v>
+        <v>646822</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9691778512855171</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9522319431143613</v>
+        <v>0.9543849593853183</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9809250013329076</v>
+        <v>0.9813579397173798</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>27162</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18755</v>
+        <v>18530</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40550</v>
+        <v>39977</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02399833452776866</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01657073668342745</v>
+        <v>0.01637132854475057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03582660903623638</v>
+        <v>0.03532006166408794</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -6699,19 +6699,19 @@
         <v>21092</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14631</v>
+        <v>14060</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31387</v>
+        <v>30408</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02449055399968981</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0169893925738604</v>
+        <v>0.01632627659044194</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03644521887876212</v>
+        <v>0.0353083285287194</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -6720,19 +6720,19 @@
         <v>48254</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36810</v>
+        <v>36958</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63628</v>
+        <v>63163</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02421102569758581</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01846914262419386</v>
+        <v>0.01854332942722402</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03192484992274056</v>
+        <v>0.03169169198200312</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1104681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1091293</v>
+        <v>1091866</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1113088</v>
+        <v>1113313</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9760016654722312</v>
+        <v>0.9760016654722314</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9641733909637631</v>
+        <v>0.9646799383359119</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9834292633165722</v>
+        <v>0.9836286714552495</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1199</v>
@@ -6770,19 +6770,19 @@
         <v>840119</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>829824</v>
+        <v>830803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>846580</v>
+        <v>847151</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9755094460003103</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9635547811212377</v>
+        <v>0.9646916714712807</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9830106074261395</v>
+        <v>0.9836737234095582</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2289</v>
@@ -6791,19 +6791,19 @@
         <v>1944800</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1929426</v>
+        <v>1929891</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1956244</v>
+        <v>1956096</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9757889743024141</v>
+        <v>0.9757889743024143</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9680751500772595</v>
+        <v>0.9683083080179968</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9815308573758061</v>
+        <v>0.9814566705727759</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>18261</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9814</v>
+        <v>9602</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35259</v>
+        <v>33860</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03215100791921323</v>
+        <v>0.03215100791921322</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01728004909281515</v>
+        <v>0.01690675562617352</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06207968110257407</v>
+        <v>0.05961575888083508</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -6916,19 +6916,19 @@
         <v>30782</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22267</v>
+        <v>22647</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45775</v>
+        <v>42645</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03704919644231106</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02680003640494282</v>
+        <v>0.02725821232952312</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05509446509121742</v>
+        <v>0.05132739857728633</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -6937,19 +6937,19 @@
         <v>49043</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36683</v>
+        <v>36958</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69315</v>
+        <v>70152</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03506037339383238</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02622414036378964</v>
+        <v>0.02642129330022766</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04955285454386901</v>
+        <v>0.05015089781890895</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>549703</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>532705</v>
+        <v>534104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>558150</v>
+        <v>558362</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9678489920807869</v>
+        <v>0.9678489920807867</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9379203188974271</v>
+        <v>0.9403842411191649</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9827199509071849</v>
+        <v>0.9830932443738265</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1239</v>
@@ -6987,19 +6987,19 @@
         <v>800068</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>785075</v>
+        <v>788205</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>808583</v>
+        <v>808203</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.962950803557689</v>
+        <v>0.9629508035576889</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9449055349087827</v>
+        <v>0.9486726014227137</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9731999635950571</v>
+        <v>0.972741787670477</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1769</v>
@@ -7008,19 +7008,19 @@
         <v>1349771</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1329499</v>
+        <v>1328662</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1362131</v>
+        <v>1361856</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9649396266061676</v>
+        <v>0.9649396266061675</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9504471454561312</v>
+        <v>0.9498491021810909</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9737758596362105</v>
+        <v>0.9735787066997723</v>
       </c>
     </row>
     <row r="18">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13672</v>
+        <v>13373</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01057018707729084</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0576316297213085</v>
+        <v>0.05637233023755762</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -7133,19 +7133,19 @@
         <v>20592</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13864</v>
+        <v>13423</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30766</v>
+        <v>30941</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02439034417572963</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01642131907949057</v>
+        <v>0.01589895752899749</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0364407059632385</v>
+        <v>0.03664763609522886</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -7154,19 +7154,19 @@
         <v>23100</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16117</v>
+        <v>15557</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34811</v>
+        <v>34249</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02135890796386741</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01490198374574724</v>
+        <v>0.01438472356931469</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03218768628316145</v>
+        <v>0.03166808979133904</v>
       </c>
     </row>
     <row r="20">
@@ -7183,16 +7183,16 @@
         <v>234720</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223556</v>
+        <v>223855</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>237228</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9894298129227092</v>
+        <v>0.989429812922709</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9423683702786892</v>
+        <v>0.9436276697624422</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7204,19 +7204,19 @@
         <v>823689</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>813515</v>
+        <v>813340</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>830417</v>
+        <v>830858</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9756096558242703</v>
+        <v>0.9756096558242704</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9635592940367618</v>
+        <v>0.9633523639047719</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9835786809205093</v>
+        <v>0.9841010424710028</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1238</v>
@@ -7225,19 +7225,19 @@
         <v>1058409</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1046698</v>
+        <v>1047260</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1065392</v>
+        <v>1065952</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9786410920361327</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9678123137168385</v>
+        <v>0.9683319102086611</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9850980162542529</v>
+        <v>0.9856152764306855</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>81546</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63038</v>
+        <v>62799</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105391</v>
+        <v>102784</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02368825343111301</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01831177062031692</v>
+        <v>0.01824245805141097</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03061502075430455</v>
+        <v>0.02985746105621406</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>156</v>
@@ -7350,19 +7350,19 @@
         <v>98116</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>84402</v>
+        <v>82882</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>117133</v>
+        <v>117548</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02698918374253241</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02321670238751238</v>
+        <v>0.02279876896193628</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0322201231104164</v>
+        <v>0.0323343683171184</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>234</v>
@@ -7371,19 +7371,19 @@
         <v>179663</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>154193</v>
+        <v>156528</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>206801</v>
+        <v>209639</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02538370431375553</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02178517231932762</v>
+        <v>0.02211516396460622</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02921803252787471</v>
+        <v>0.02961888713099651</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3360930</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3337085</v>
+        <v>3339692</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3379438</v>
+        <v>3379677</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9763117465688871</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9693849792456952</v>
+        <v>0.9701425389437859</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9816882293796829</v>
+        <v>0.9817575419485891</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5088</v>
@@ -7421,19 +7421,19 @@
         <v>3537277</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3518260</v>
+        <v>3517845</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3550991</v>
+        <v>3552511</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9730108162574675</v>
+        <v>0.9730108162574677</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9677798768895834</v>
+        <v>0.9676656316828817</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9767832976124877</v>
+        <v>0.9772012310380637</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8310</v>
@@ -7442,19 +7442,19 @@
         <v>6898206</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6871068</v>
+        <v>6868230</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6923676</v>
+        <v>6921341</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9746162956862445</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9707819674721254</v>
+        <v>0.9703811128690035</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.978214827680673</v>
+        <v>0.9778848360353938</v>
       </c>
     </row>
     <row r="24">
